--- a/data_plan.xlsx
+++ b/data_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\20xx Uni Work\2207\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB31A4A9-7D40-4F6D-94CC-52D5D1C619ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B281EA8-559C-4FF9-92E6-6B965333D992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
   <si>
     <t>Data Plan</t>
   </si>
@@ -220,6 +220,154 @@
   </si>
   <si>
     <t>This is another drop down menu which can search through the users on the app, and will create a pop-up asking if you would like to delete a user from the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try and match the username &amp; password to an existing user on the database. If no matches are found send an error back. </t>
+  </si>
+  <si>
+    <t>Call Google's sign-in function &amp; send an encrypted token to their servers to validate, then if validation was successful, log the user in and create an account for them, with just a username &amp; generated ID.</t>
+  </si>
+  <si>
+    <t>Create a new user with a username, password &amp; unique ID.</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX POST request to "/login" containing:
+{ 
+    "username": "[the user entered username]",
+    "password": "[the user entered password]"
+}</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX POST request to "/createaccount" containing:{  "username": "new username", "password": "new password" }</t>
+  </si>
+  <si>
+    <t>Generate a username &amp; ID on the database for the user.</t>
+  </si>
+  <si>
+    <t>Not entirely sure on this one yet.</t>
+  </si>
+  <si>
+    <t>return to the client that the login was successful/not successful</t>
+  </si>
+  <si>
+    <t>request for the create account page is sent to the server</t>
+  </si>
+  <si>
+    <t>User is sent the Create account page</t>
+  </si>
+  <si>
+    <t>HTML of the create account page is returned to the user</t>
+  </si>
+  <si>
+    <t>POST Request to /login</t>
+  </si>
+  <si>
+    <t>POST Request to /login?</t>
+  </si>
+  <si>
+    <t>POST Request to /createaccount</t>
+  </si>
+  <si>
+    <t>send the user the HTML for the home page &amp; a conformation that they are logged in.</t>
+  </si>
+  <si>
+    <t>return to the the log in page &amp; tell them if the account creation was succesful.</t>
+  </si>
+  <si>
+    <t>Request will be sent to the server depending on which option the user chose, e.g. Settings or Log-Out</t>
+  </si>
+  <si>
+    <t>If the user requested to log out, they will be logged out &amp; their session deleted. If the user wanted the settings page they will be sent the settings page.</t>
+  </si>
+  <si>
+    <t>HTML of the settings page is returned to the user</t>
+  </si>
+  <si>
+    <t>GET Request for the create account page</t>
+  </si>
+  <si>
+    <t>GET request to the settings page</t>
+  </si>
+  <si>
+    <t>User is deleted from the server database</t>
+  </si>
+  <si>
+    <t>conformation of the user's deletion is returned to the client</t>
+  </si>
+  <si>
+    <t>request to delete a user from the database is sent to the server in a JSON format containing the username</t>
+  </si>
+  <si>
+    <t>request to add a user to the database as an Admin is sent to the server in a JSON format containing the username</t>
+  </si>
+  <si>
+    <t>User is added as an admin in the server database</t>
+  </si>
+  <si>
+    <t>Conformation of the admin permissions added to that user is sent to the client</t>
+  </si>
+  <si>
+    <t>POST Request to the server's user database</t>
+  </si>
+  <si>
+    <t>Username is updated in the database</t>
+  </si>
+  <si>
+    <t>If the change was successful send a response to the client letting them know, if not send an error.</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request to the database containing the old email and the updated email</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request to the database containing the old username and the updated username</t>
+  </si>
+  <si>
+    <t>email is updated in the database</t>
+  </si>
+  <si>
+    <t>Request the user's Google calendar via the API if their Google account is linked.</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX Request sent to the database containing the details necessary for adding an event into the database.</t>
+  </si>
+  <si>
+    <t>POST request sent to the server's event database</t>
+  </si>
+  <si>
+    <t>GET request for the Google user's calendar</t>
+  </si>
+  <si>
+    <t>Not entirely sure on this one yet either.</t>
+  </si>
+  <si>
+    <t>The user's Google calendar is sent in response and displayed on the home page.</t>
+  </si>
+  <si>
+    <t>Request Google's database for the users calendar.</t>
+  </si>
+  <si>
+    <t>Request is processed and updated into the database</t>
+  </si>
+  <si>
+    <t>Confirmation of the event being added into the database is sent to the client.</t>
+  </si>
+  <si>
+    <t>Update the user's preference on the database by changing a boolean variable to true if the user wants to receive notifications.</t>
+  </si>
+  <si>
+    <t>Preference is updated on the database</t>
+  </si>
+  <si>
+    <t>Conformation is sent to the client of whether or not the request was successful</t>
+  </si>
+  <si>
+    <t>Update the user's preference on the database by changing a boolean variable to true if the user wants to have dark mode on.</t>
+  </si>
+  <si>
+    <t>database is checked and the user is given dark or light mode.</t>
+  </si>
+  <si>
+    <t>This could be stored on the user's profile on the server so every time they log in they are shown the dark mode or light mode depending on which one they chose. The change should be instant on the client side.</t>
   </si>
 </sst>
 </file>
@@ -357,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -399,6 +547,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -866,7 +1017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="38.25">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="63.75">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -876,10 +1027,18 @@
       <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="25.5">
@@ -892,10 +1051,18 @@
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="38.25">
@@ -908,11 +1075,21 @@
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="63.75">
       <c r="A8" s="11" t="s">
@@ -924,10 +1101,18 @@
       <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="51">
@@ -940,10 +1125,18 @@
       <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>74</v>
+      </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="38.25">
@@ -956,10 +1149,18 @@
       <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="89.25">
@@ -972,11 +1173,21 @@
       <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="63.75">
       <c r="A12" s="11" t="s">
@@ -988,10 +1199,18 @@
       <c r="C12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
+      <c r="D12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="63.75">
@@ -1004,13 +1223,21 @@
       <c r="C13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
+      <c r="D13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" ht="51">
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="63.75">
       <c r="A14" s="11" t="s">
         <v>40</v>
       </c>
@@ -1020,11 +1247,21 @@
       <c r="C14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="D14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="63.75">
       <c r="A15" s="11" t="s">
@@ -1036,10 +1273,18 @@
       <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" s="10" customFormat="1" ht="51">
@@ -1052,10 +1297,18 @@
       <c r="C16" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
+      <c r="D16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" s="10" customFormat="1" ht="51">
@@ -1068,10 +1321,18 @@
       <c r="C17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
+      <c r="D17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" s="10" customFormat="1">
@@ -1526,7 +1787,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
